--- a/2014.xlsx
+++ b/2014.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyagi\Desktop\Work\ML\Research Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIdhi Kaitwade\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB32DC9-9299-4966-B334-A71E105E6D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D970E5-80CB-4897-807E-E3D2B5DAFA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
   <si>
     <t>Date</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>2014-01-01</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
   <si>
     <t>2014-01-02</t>
@@ -1482,14 +1479,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,2887 +1496,2905 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>121330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>120228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>121330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>124589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
       </c>
       <c r="B6">
         <v>121664</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>118072</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>124675</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>124917</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>126015</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>124772</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>125470</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>123654</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>119448</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>122142</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>116181</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>119338</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>122845</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>121671</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>122355</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>117725</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>123279</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>120455</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>119329</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>118166</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>120601</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>120544</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>112125</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>120504</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>122973</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>123414</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>122300</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>124006</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>122195</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>116269</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>121193</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>122681</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>122046</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>123123</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>124061</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>121113</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>115997</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>122722</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>124589</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>46</v>
       </c>
       <c r="B45">
         <v>126189</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>124467</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>122310</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>120646</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>114603</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>122360</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>123091</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>124090</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>124563</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>122991</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>123946</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>116039</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>121948</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>122331</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>120920</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>117875</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>114733</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>116214</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>112719</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>116649</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>116776</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>119240</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>118327</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>119857</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>118815</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>113747</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>114511</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>119107</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>124589</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>75</v>
       </c>
       <c r="B74">
         <v>121887</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>122081</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>120521</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>115809</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>111071</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>121834</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>121060</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>121501</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>123158</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>124778</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>121750</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>123463</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>124647</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>126342</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>124237</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>122702</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>123401</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>118795</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>122216</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>123559</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>127570</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>129635</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>126852</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>126317</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>124294</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>124589</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>101</v>
       </c>
       <c r="B100">
         <v>126086</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>125653</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>127875</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>126979</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>124081</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>117815</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>123317</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>126634</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>124737</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>119783</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>120786</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>124407</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>115293</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>125034</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>127619</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>128581</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>125365</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>128618</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>129547</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>124826</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>129419</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>129715</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>128922</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>123409</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>123882</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>124033</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>119774</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>124589</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="B128">
+        <v>124589</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>129</v>
       </c>
-      <c r="B128" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="B129">
+        <v>124589</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>130</v>
       </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="B130">
+        <v>124589</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>132</v>
       </c>
       <c r="B131">
         <v>124990</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>122578</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>124589</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>134</v>
-      </c>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>135</v>
       </c>
       <c r="B134">
         <v>120024</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>122879</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>121625</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>125545</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>126583</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139">
         <v>125522</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>120044</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>122972</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>127690</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>127922</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>129575</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145">
         <v>125704</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146">
         <v>125277</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>114275</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>122817</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149">
         <v>124717</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150">
         <v>123812</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>124589</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>152</v>
-      </c>
-      <c r="B151" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>153</v>
       </c>
       <c r="B152">
         <v>123249</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153">
         <v>125641</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154">
         <v>121601</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155">
         <v>124014</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B156">
         <v>124978</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157">
         <v>128289</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158">
         <v>128934</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>132112</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160">
         <v>130707</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161">
         <v>125865</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162">
         <v>129898</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163">
         <v>131083</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164">
         <v>127557</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165">
         <v>122348</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166">
         <v>126219</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167">
         <v>127160</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168">
         <v>121709</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169">
         <v>132099</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170">
         <v>131526</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171">
         <v>130035</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172">
         <v>131785</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173">
         <v>131643</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174">
         <v>127389</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175">
         <v>125798</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176">
         <v>130424</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177">
         <v>133302</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178">
         <v>133070</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179">
         <v>133046</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180">
         <v>132823</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181">
         <v>132582</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182">
         <v>127183</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183">
         <v>135746</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184">
         <v>133870</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>124589</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>187</v>
       </c>
       <c r="B186">
         <v>132455</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187">
         <v>133480</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188">
         <v>133031</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189">
         <v>126938</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190">
         <v>132667</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191">
         <v>132792</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192">
         <v>131431</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193">
         <v>130965</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194">
         <v>131882</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195">
         <v>129547</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196">
         <v>125435</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197">
         <v>132735</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198">
         <v>131093</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199">
         <v>130415</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200">
         <v>125961</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201">
         <v>126786</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202">
         <v>127736</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203">
         <v>122640</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204">
         <v>128886</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205">
         <v>128133</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206">
         <v>125724</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207">
         <v>126914</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208">
         <v>128117</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209">
         <v>127584</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210">
         <v>123396</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211">
         <v>127194</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212">
         <v>126330</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213">
         <v>128559</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214">
         <v>129537</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215">
         <v>125067</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216">
         <v>127952</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217">
         <v>123463</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218">
         <v>127282</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219">
         <v>126081</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220">
         <v>126378</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221">
         <v>127671</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222">
         <v>127143</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223">
         <v>127238</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224">
         <v>118150</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225">
         <v>128536</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226">
         <v>129725</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227">
         <v>130775</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228">
         <v>119481</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229">
         <v>126703</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230">
         <v>128454</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231">
         <v>131115</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232">
         <v>130050</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233">
         <v>133226</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B234">
         <v>135238</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B235">
         <v>134130</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B236">
         <v>130643</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237">
         <v>133764</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B238">
         <v>133925</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B239">
         <v>132033</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B240">
         <v>131443</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B241">
         <v>129123</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B242">
         <v>130557</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B243">
         <v>123966</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B244">
         <v>126045</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B245">
         <v>126440</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B246">
         <v>123798</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B247">
         <v>123167</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248">
         <v>119312</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249">
         <v>119473</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B250">
         <v>114646</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B251">
         <v>118580</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B252">
         <v>123002</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B253">
         <v>126055</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254">
         <v>127088</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B255">
         <v>127397</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B256">
         <v>128584</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B257">
         <v>120395</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B258">
         <v>128536</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B259">
         <v>129340</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B260">
         <v>131216</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B261">
         <v>133329</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B262">
         <v>134194</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B263">
         <v>132488</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B264">
         <v>130651</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B265">
         <v>134982</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B266">
         <v>135584</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B267">
         <v>136210</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B268">
         <v>138215</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B269">
         <v>135988</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B270">
         <v>136650</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B271">
         <v>131932</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B272">
         <v>135729</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B273">
         <v>133684</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B274">
         <v>131408</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B275">
         <v>131298</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B276">
         <v>129486</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B277">
         <v>134470</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B278">
         <v>132381</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B279">
         <v>136516</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B280">
         <v>134231</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B281">
         <v>132233</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B282">
         <v>134650</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B283">
         <v>133756</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B284">
         <v>133411</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B285">
         <v>123556</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B286">
         <v>128163</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B287">
         <v>126631</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B288">
         <v>126306</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B289">
         <v>127216</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B290">
         <v>126490</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B291">
         <v>125705</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B292">
         <v>123609</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B293">
         <v>127738</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B294">
         <v>130288</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B295">
         <v>127526</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B296">
         <v>119143</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B297">
         <v>120397</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B298">
         <v>119919</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B299">
         <v>117718</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B300">
         <v>122344</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B301">
         <v>124327</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B302">
         <v>125432</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B303">
         <v>125885</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B304">
         <v>125475</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B305">
         <v>124127</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B306">
         <v>120588</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B307">
         <v>125011</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B308">
         <v>123647</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B309">
         <v>124908</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B310">
         <v>126571</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B311">
         <v>128020</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B312">
         <v>127526</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B313">
         <v>122612</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B314">
         <v>127205</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B315">
         <v>128070</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B316">
         <v>127807</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B317">
         <v>127763</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B318">
         <v>126077</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B319">
         <v>126486</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B320">
         <v>121967</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B321">
         <v>128007</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B322">
         <v>126568</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B323">
         <v>126423</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B324">
         <v>127163</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B325">
         <v>127354</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B326">
         <v>127204</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B327">
         <v>122580</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B328">
         <v>127769</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B329">
         <v>128912</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B330">
         <v>127262</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B331">
         <v>127153</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B332">
         <v>127705</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B333">
         <v>127335</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B334">
         <v>122212</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B335">
         <v>126267</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B336">
         <v>126561</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B337">
         <v>127637</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B338">
         <v>128660</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B339">
         <v>126828</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B340">
         <v>125531</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B341">
         <v>122619</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B342">
         <v>129485</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B343">
         <v>131319</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B344">
         <v>129723</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B345">
         <v>130995</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B346">
         <v>126423</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B347">
         <v>124200</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B348">
         <v>116686</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B349">
         <v>125151</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B350">
         <v>126644</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B351">
         <v>126019</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B352">
         <v>127578</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B353">
         <v>126975</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B354">
         <v>127139</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B355">
         <v>122526</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B356">
         <v>130028</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B357">
         <v>128893</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B358">
         <v>129904</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B359">
         <v>127564</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B360">
         <v>128535</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B361">
         <v>127790</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B362">
         <v>122346</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B363">
         <v>128827</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B364">
         <v>129802</v>
